--- a/src/main/resources/EmployeeList.xlsx
+++ b/src/main/resources/EmployeeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cagrigurbuz\Desktop\dutyassignment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E2B1F1-5010-4305-B6BE-6C5B1D47E24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CB224-86D5-4976-BADA-BB0EC84AEFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>Çağrı Gürbüz</t>
   </si>
   <si>
+    <t>a1472</t>
+  </si>
+  <si>
     <t>deneme</t>
-  </si>
-  <si>
-    <t>a1472</t>
   </si>
 </sst>
 </file>
@@ -412,9 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -436,13 +434,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/EmployeeList.xlsx
+++ b/src/main/resources/EmployeeList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cagrigurbuz\Desktop\dutyassignment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7CB224-86D5-4976-BADA-BB0EC84AEFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD101A5E-76CF-4D81-AD20-2BD0104762AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -44,13 +44,7 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Çağrı Gürbüz</t>
-  </si>
-  <si>
-    <t>a1472</t>
-  </si>
-  <si>
-    <t>deneme</t>
+    <t>MaxWorkingHourMonthly</t>
   </si>
 </sst>
 </file>
@@ -94,8 +88,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,19 +407,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EA501-B07D-4B04-B7C9-5E45FD7CEE09}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2"/>
-    <col min="2" max="2" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -431,24 +428,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/EmployeeList.xlsx
+++ b/src/main/resources/EmployeeList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cagrigurbuz\Desktop\dutyassignment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD101A5E-76CF-4D81-AD20-2BD0104762AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8613473D-B361-4ABD-A2DD-A1B4FA4D1B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="EmployeeList" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
